--- a/wars/smartPark-web/src/main/webapp/template/userinfo.xlsx
+++ b/wars/smartPark-web/src/main/webapp/template/userinfo.xlsx
@@ -128,13 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,121 +441,122 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="1" max="7" width="11" style="5"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
